--- a/Unity/Assets/Config/Excel/DungeonsConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DungeonsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonsConfigProto" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
